--- a/resources/wheels/180 - Бачило.xlsx
+++ b/resources/wheels/180 - Бачило.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -693,16 +693,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -919,9 +919,9 @@
       <c r="F16" s="23">
         <v>36.799999999999997</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.800000000000004</v>
+        <v>63.339000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1031,7 +1031,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>5.758</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1043,7 +1045,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.781</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1055,7 +1059,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -1595,16 +1601,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1821,9 +1827,9 @@
       <c r="F16" s="23">
         <v>36.799999999999997</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.800000000000004</v>
+        <v>63.339000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1933,7 +1939,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>5.758</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1945,7 +1953,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.781</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1957,7 +1967,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -2497,16 +2509,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2723,9 +2735,9 @@
       <c r="F16" s="23">
         <v>36.799999999999997</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.800000000000004</v>
+        <v>63.339000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2835,7 +2847,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>5.758</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -2847,7 +2861,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.781</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -2859,7 +2875,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -3399,16 +3417,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3625,9 +3643,9 @@
       <c r="F16" s="23">
         <v>36.799999999999997</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.800000000000004</v>
+        <v>63.339000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3737,7 +3755,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>5.758</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -3749,7 +3769,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.781</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -3761,7 +3783,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -4301,16 +4325,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4523,9 +4547,9 @@
       <c r="F16" s="23">
         <v>63.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>81.900000000000006</v>
+        <v>90.43900000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4635,7 +4659,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>5.758</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -4647,7 +4673,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.781</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -4659,7 +4687,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -5199,16 +5229,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5421,9 +5451,9 @@
       <c r="F16" s="23">
         <v>63.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>81.900000000000006</v>
+        <v>90.43900000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5533,7 +5563,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>5.758</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -5545,7 +5577,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.781</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -5557,7 +5591,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -6100,16 +6136,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6326,9 +6362,9 @@
       <c r="F16" s="23">
         <v>95.5</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>113.50000000000001</v>
+        <v>122.03900000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6438,7 +6474,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>5.758</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -6450,7 +6488,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.781</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -6462,7 +6502,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/180 - Бачило.xlsx
+++ b/resources/wheels/180 - Бачило.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="57">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -160,6 +160,42 @@
   </si>
   <si>
     <t>AM 9778-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -688,7 +724,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -921,7 +957,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>63.339000000000006</v>
+        <v>69.22800000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1031,7 +1067,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>5.758</v>
       </c>
       <c r="G24" s="23"/>
@@ -1045,8 +1081,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.781</v>
+      <c r="F25" s="23">
+        <v>2.7810000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -1059,8 +1095,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.0</v>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -1073,7 +1109,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -1085,7 +1123,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -1097,7 +1137,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.325</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -1106,8 +1148,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>3.908</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -1116,7 +1162,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1126,7 +1174,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1136,7 +1186,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -1146,7 +1198,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -1156,7 +1210,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -1166,7 +1222,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -1176,7 +1234,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -1186,7 +1246,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -1196,7 +1258,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -1206,7 +1270,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -1216,7 +1282,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -1595,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1829,7 +1897,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>63.339000000000006</v>
+        <v>69.22800000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1939,7 +2007,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>5.758</v>
       </c>
       <c r="G24" s="23"/>
@@ -1953,8 +2021,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.781</v>
+      <c r="F25" s="23">
+        <v>2.7810000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -1967,8 +2035,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.0</v>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -1981,7 +2049,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -1993,7 +2063,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2005,7 +2077,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.325</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -2014,8 +2088,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>3.908</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -2024,7 +2102,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2034,7 +2114,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2044,7 +2126,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2054,7 +2138,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2064,7 +2150,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2074,7 +2162,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2084,7 +2174,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -2094,7 +2186,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -2104,7 +2198,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -2114,7 +2210,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -2124,7 +2222,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -2504,7 +2604,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2737,7 +2837,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>63.339000000000006</v>
+        <v>69.22800000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2847,7 +2947,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>5.758</v>
       </c>
       <c r="G24" s="23"/>
@@ -2861,8 +2961,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.781</v>
+      <c r="F25" s="23">
+        <v>2.7810000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -2875,8 +2975,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.0</v>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -2889,7 +2989,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2901,7 +3003,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2913,7 +3017,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.325</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -2922,8 +3028,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>3.908</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -2932,7 +3042,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2942,7 +3054,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2952,7 +3066,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2962,7 +3078,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2972,7 +3090,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2982,7 +3102,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2992,7 +3114,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -3002,7 +3126,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -3012,7 +3138,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -3022,7 +3150,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -3032,7 +3162,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -3412,7 +3544,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3645,7 +3777,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>63.339000000000006</v>
+        <v>69.22800000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3755,7 +3887,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>5.758</v>
       </c>
       <c r="G24" s="23"/>
@@ -3769,8 +3901,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.781</v>
+      <c r="F25" s="23">
+        <v>2.7810000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -3783,8 +3915,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.0</v>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -3797,7 +3929,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -3809,7 +3943,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -3821,7 +3957,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.325</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -3830,8 +3968,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>3.908</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -3840,7 +3982,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3850,7 +3994,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3860,7 +4006,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -3870,7 +4018,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -3880,7 +4030,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -3890,7 +4042,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -3900,7 +4054,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -3910,7 +4066,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -3920,7 +4078,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -3930,7 +4090,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -3940,7 +4102,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -4320,7 +4484,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4549,7 +4713,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>90.43900000000001</v>
+        <v>96.32800000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4659,7 +4823,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>5.758</v>
       </c>
       <c r="G24" s="23"/>
@@ -4673,8 +4837,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.781</v>
+      <c r="F25" s="23">
+        <v>2.7810000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -4687,8 +4851,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.0</v>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -4701,7 +4865,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -4713,7 +4879,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -4725,7 +4893,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.325</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -4734,8 +4904,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>3.908</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -4744,7 +4918,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4754,7 +4930,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4764,7 +4942,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -4774,7 +4954,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -4784,7 +4966,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -4794,7 +4978,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -4804,7 +4990,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -4814,7 +5002,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -4824,7 +5014,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -4834,7 +5026,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -4844,7 +5038,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -5224,7 +5420,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5453,7 +5649,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>90.43900000000001</v>
+        <v>96.32800000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5563,7 +5759,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>5.758</v>
       </c>
       <c r="G24" s="23"/>
@@ -5577,8 +5773,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.781</v>
+      <c r="F25" s="23">
+        <v>2.7810000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -5591,8 +5787,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.0</v>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -5605,7 +5801,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -5617,7 +5815,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -5629,7 +5829,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.325</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -5638,8 +5840,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>3.908</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -5648,7 +5854,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -5658,7 +5866,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -5668,7 +5878,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -5678,7 +5890,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -5688,7 +5902,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -5698,7 +5914,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -5708,7 +5926,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -5718,7 +5938,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -5728,7 +5950,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -5738,7 +5962,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -5748,7 +5974,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -6131,7 +6359,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6364,7 +6592,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>122.03900000000002</v>
+        <v>127.92800000000003</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6474,7 +6702,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>5.758</v>
       </c>
       <c r="G24" s="23"/>
@@ -6488,8 +6716,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.781</v>
+      <c r="F25" s="23">
+        <v>2.7810000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -6502,8 +6730,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>0.0</v>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -6516,7 +6744,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -6528,7 +6758,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -6540,7 +6772,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.325</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -6549,8 +6783,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>3.908</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -6559,7 +6797,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -6569,7 +6809,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -6579,7 +6821,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -6589,7 +6833,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -6599,7 +6845,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -6609,7 +6857,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -6619,7 +6869,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -6629,7 +6881,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -6639,7 +6893,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -6649,7 +6905,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -6659,7 +6917,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
